--- a/tablestolatex.xlsx
+++ b/tablestolatex.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasu\Documents\GitHub\thesis_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasu\Documents\GitHub\thesis_report_11aug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED1F8FD-84B7-4B52-BE2F-DFAAB6E6CCB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C8B152-2D1F-4F93-B95E-9DA1A41A2FD8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{9F52908A-7EC0-48A2-9ABB-7BC0472FBC4F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="3" xr2:uid="{9F52908A-7EC0-48A2-9ABB-7BC0472FBC4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Constant" sheetId="2" r:id="rId2"/>
     <sheet name="M1_Sg1" sheetId="3" r:id="rId3"/>
+    <sheet name="M1_Sg01" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>M=1</t>
   </si>
@@ -336,6 +337,27 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>With a restart file</t>
+  </si>
+  <si>
+    <t>Without a restart file</t>
+  </si>
+  <si>
+    <t>$(FSI_{sub})_{mean}$</t>
+  </si>
+  <si>
+    <t>$(FSI_{sub})_{min}$</t>
+  </si>
+  <si>
+    <t>$(FSI_{sub})_{max}$</t>
+  </si>
+  <si>
+    <t>Acceleration parameters</t>
+  </si>
+  <si>
+    <t>$\bar{t}\ts$ in s</t>
   </si>
 </sst>
 </file>
@@ -707,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -776,52 +798,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,38 +1188,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="38"/>
@@ -1300,10 +1331,10 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="32"/>
+      <c r="C10" s="44"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1358,23 +1389,23 @@
       <c r="C17" s="21"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1416,10 +1447,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="32"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
@@ -1459,6 +1490,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="D4:E4"/>
@@ -1467,9 +1501,6 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1492,13 +1523,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24">
@@ -1569,17 +1600,17 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1672,56 +1703,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6422C3-B55D-4256-8F3F-F405643EE6C6}">
-  <dimension ref="D2:K7"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="29" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="4:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D3" s="29"/>
-      <c r="E3" s="44" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1788,9 @@
         <v>0.3992</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="D5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1773,7 +1816,9 @@
         <v>0.3987</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1799,7 +1844,9 @@
         <v>0.39729999999999999</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
       <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1825,12 +1872,581 @@
         <v>0.34</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G13" s="29">
+        <v>-0.28249999999999997</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0.70089999999999997</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0.39939999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="G14" s="29">
+        <v>-0.28210000000000002</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1.7231000000000001</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0.39889999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="G15" s="29">
+        <v>-0.2898</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.2898</v>
+      </c>
+      <c r="I15" s="29">
+        <v>1.7335</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0.40050000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.38</v>
+      </c>
+      <c r="G16" s="29">
+        <v>-0.27</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1.66</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.65</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="42"/>
+      <c r="E21" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="29">
+        <v>22</v>
+      </c>
+      <c r="F22" s="29">
+        <v>11</v>
+      </c>
+      <c r="G22" s="29">
+        <v>13</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="29">
+        <v>25</v>
+      </c>
+      <c r="F23" s="29">
+        <v>3</v>
+      </c>
+      <c r="G23" s="29">
+        <v>8</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="29">
+        <v>19</v>
+      </c>
+      <c r="F24" s="29">
+        <v>11</v>
+      </c>
+      <c r="G24" s="29">
+        <v>9</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A12:B16"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:K2"/>
+    <mergeCell ref="A3:B7"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91C3B25-D7C8-41E5-A11E-954880022E37}">
+  <dimension ref="A2:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="48"/>
+      <c r="E2" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="H4" s="29">
+        <v>-0.61109999999999998</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="J4" s="29">
+        <v>2.2587999999999999</v>
+      </c>
+      <c r="K4" s="29">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="L4" s="29">
+        <v>0.86550000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="H5" s="29">
+        <v>-0.61099999999999999</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J5" s="29">
+        <v>2.2574999999999998</v>
+      </c>
+      <c r="K5" s="29">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0.86409999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.3775</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.4788</v>
+      </c>
+      <c r="H6" s="29">
+        <v>-0.62549999999999994</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J6" s="29">
+        <v>2.2966000000000002</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0.88439999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.3775</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0.4788</v>
+      </c>
+      <c r="H7" s="29">
+        <v>-0.62549999999999994</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="J7" s="29">
+        <v>2.2966000000000002</v>
+      </c>
+      <c r="K7" s="29">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="L7" s="29">
+        <v>0.88439999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="E11" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="H13" s="29">
+        <v>-0.63329999999999997</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.59670000000000001</v>
+      </c>
+      <c r="J13" s="29">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0.8952</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0.86529999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="H14" s="29">
+        <v>-0.62880000000000003</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0.59709999999999996</v>
+      </c>
+      <c r="J14" s="29">
+        <v>2.2469000000000001</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0.86570000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.32090000000000002</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="H15" s="29">
+        <v>-0.63119999999999998</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="J15" s="29">
+        <v>2.2484000000000002</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0.86850000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="29">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J16" s="29">
+        <v>1.89</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0.84</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="A11:B15"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:L11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>